--- a/results/full_results_centile_rank_IQ.xlsx
+++ b/results/full_results_centile_rank_IQ.xlsx
@@ -1,126 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spetrini/Library/Mobile Documents/com~apple~CloudDocs/University/UNIL/projects/Inequality-Across-Families-and-PGIs/WLS/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B27239B-009B-A743-ACFA-D5E53BA04931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15680" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Full results" sheetId="1" r:id="rId1"/>
-    <sheet name="For plotting" sheetId="2" r:id="rId2"/>
+    <sheet name="Full results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="For plotting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="31">
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>emptyind</t>
-  </si>
-  <si>
-    <t>emptyfam</t>
-  </si>
-  <si>
-    <t>totalvar</t>
-  </si>
-  <si>
-    <t>condind</t>
-  </si>
-  <si>
-    <t>condfam</t>
-  </si>
-  <si>
-    <t>completeind</t>
-  </si>
-  <si>
-    <t>completefam</t>
-  </si>
-  <si>
-    <t>sibcorr</t>
-  </si>
-  <si>
-    <t>condcorr</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>IOLIB</t>
-  </si>
-  <si>
-    <t>IORAD</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>NULL MODEL</t>
-  </si>
-  <si>
-    <t>CONDITIONAL MODEL</t>
-  </si>
-  <si>
-    <t>COMPLETE MODEL</t>
-  </si>
-  <si>
-    <t>occupation</t>
-  </si>
-  <si>
-    <t>income_ind</t>
-  </si>
-  <si>
-    <t>income_hh</t>
-  </si>
-  <si>
-    <t>wealth</t>
-  </si>
-  <si>
-    <t>health_self</t>
-  </si>
-  <si>
-    <t>health_illness</t>
-  </si>
-  <si>
-    <t>health_pc</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Estimate</t>
-  </si>
-  <si>
-    <t>Sibcorr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">Outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emptyind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emptyfam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">totalvar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condfam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completeind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completefam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sibcorr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condcorr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOLIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IORAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL MODEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITIONAL MODEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLETE MODEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income_ind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income_hh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health_self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health_illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health_pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sibcorr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,15 +149,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -446,14 +430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,527 +484,733 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>3.6587319788827499</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>3.65873197888275</v>
+      </c>
+      <c r="D2" t="n">
         <v>2.1782190027668</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>5.83695098164955</v>
       </c>
-      <c r="J2">
-        <v>0.37317753902932799</v>
-      </c>
-      <c r="K2">
-        <v>0.22703893541067699</v>
-      </c>
-      <c r="L2">
-        <v>1.1694174963251199E-2</v>
-      </c>
-      <c r="M2">
-        <v>6.6105345738749696E-2</v>
-      </c>
-      <c r="N2">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="n">
+        <v>0.373177539029328</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.227038935410677</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0116941749632512</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0661053457387497</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.238733110373928</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2"/>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
-        <v>3.3411366422120001</v>
-      </c>
-      <c r="G3">
-        <v>1.3252151369180201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="n">
+        <v>3.341136642212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.32521513691802</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="n">
         <v>3.27287831618067</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>1.17275929715817</v>
       </c>
-      <c r="O4">
-        <v>0.43928288476807797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4" t="n">
+        <v>0.439282884768078</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>44783.0192873919</v>
       </c>
-      <c r="D5">
-        <v>9205.1611081990304</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>9205.16110819903</v>
+      </c>
+      <c r="E5" t="n">
         <v>53988.180395591</v>
       </c>
-      <c r="J5">
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="n">
         <v>0.170503266469614</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.11600648812835</v>
       </c>
-      <c r="L5">
-        <v>1.10509168591737E-2</v>
-      </c>
-      <c r="M5">
-        <v>2.4026710661029699E-2</v>
-      </c>
-      <c r="N5">
-        <v>0.12705740498752399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L5" t="n">
+        <v>0.0110509168591737</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0240267106610297</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.127057404987524</v>
+      </c>
+      <c r="O5"/>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
-        <v>44082.479790841302</v>
-      </c>
-      <c r="G6">
-        <v>6262.9792081323603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>44082.4797908413</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6262.97920813236</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="H7">
-        <v>43485.860897911603</v>
-      </c>
-      <c r="I7">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>43485.8608979116</v>
+      </c>
+      <c r="I7" t="n">
         <v>6053.52653641096</v>
       </c>
-      <c r="O7">
-        <v>0.19452997713064399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7" t="n">
+        <v>0.194529977130644</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>2121617852.4535201</v>
-      </c>
-      <c r="D8">
-        <v>330933107.52238798</v>
-      </c>
-      <c r="E8">
-        <v>2452550959.9759102</v>
-      </c>
-      <c r="J8">
-        <v>0.13493424313011601</v>
-      </c>
-      <c r="K8">
-        <v>9.6639699046305705E-2</v>
-      </c>
-      <c r="L8">
-        <v>8.4476747549290798E-2</v>
-      </c>
-      <c r="M8">
+      <c r="C8" t="n">
+        <v>2121617852.45352</v>
+      </c>
+      <c r="D8" t="n">
+        <v>330933107.522388</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2452550959.97591</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="n">
+        <v>0.134934243130116</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0966396990463057</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0844767475492908</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.115771304959024</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>0.181116446595596</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8"/>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="F9">
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="n">
         <v>2044866355.63626</v>
       </c>
-      <c r="G9">
-        <v>237013786.66780001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G9" t="n">
+        <v>237013786.6678</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="H10">
-        <v>1837682827.3385999</v>
-      </c>
-      <c r="I10">
-        <v>193744370.54120699</v>
-      </c>
-      <c r="O10">
-        <v>0.25070554808913997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" t="n">
+        <v>1837682827.3386</v>
+      </c>
+      <c r="I10" t="n">
+        <v>193744370.541207</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" t="n">
+        <v>0.25070554808914</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>3767962171.5205998</v>
-      </c>
-      <c r="D11">
-        <v>871266129.69170403</v>
-      </c>
-      <c r="E11">
-        <v>4639228301.2123098</v>
-      </c>
-      <c r="J11">
-        <v>0.18780410730466299</v>
-      </c>
-      <c r="K11">
-        <v>0.13090085141067601</v>
-      </c>
-      <c r="L11">
-        <v>3.5185613776765302E-2</v>
-      </c>
-      <c r="M11">
-        <v>4.2195839870303398E-2</v>
-      </c>
-      <c r="N11">
+      <c r="C11" t="n">
+        <v>3767962171.5206</v>
+      </c>
+      <c r="D11" t="n">
+        <v>871266129.691704</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4639228301.21231</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="n">
+        <v>0.187804107304663</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.130900851410676</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0351856137767653</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0421958398703034</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.166086465187442</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11"/>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="F12">
-        <v>3735440132.2295699</v>
-      </c>
-      <c r="G12">
-        <v>607278934.51719701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>3735440132.22957</v>
+      </c>
+      <c r="G12" t="n">
+        <v>607278934.517197</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="H13">
-        <v>3572206037.0008702</v>
-      </c>
-      <c r="I13">
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" t="n">
+        <v>3572206037.00087</v>
+      </c>
+      <c r="I13" t="n">
         <v>571435789.620597</v>
       </c>
-      <c r="O13">
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" t="n">
         <v>0.229999947174966</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
-        <v>710264912737.07703</v>
-      </c>
-      <c r="D14">
+      <c r="C14" t="n">
+        <v>710264912737.077</v>
+      </c>
+      <c r="D14" t="n">
         <v>143572231039.595</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>853837143776.672</v>
       </c>
-      <c r="J14">
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" t="n">
         <v>0.16814943234321</v>
       </c>
-      <c r="K14">
-        <v>0.12986002402545699</v>
-      </c>
-      <c r="L14">
-        <v>9.9642045917091096E-3</v>
-      </c>
-      <c r="M14">
-        <v>2.2885997943731099E-3</v>
-      </c>
-      <c r="N14">
-        <v>0.13982422861716601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K14" t="n">
+        <v>0.129860024025457</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.00996420459170911</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.00228859979437311</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.139824228617166</v>
+      </c>
+      <c r="O14"/>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="F15">
-        <v>716818629213.99304</v>
-      </c>
-      <c r="G15">
-        <v>110879312004.66701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>716818629213.993</v>
+      </c>
+      <c r="G15" t="n">
+        <v>110879312004.667</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="H16">
-        <v>708310821225.40198</v>
-      </c>
-      <c r="I16">
-        <v>101137604958.36301</v>
-      </c>
-      <c r="O16">
-        <v>0.17043803213758299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16" t="n">
+        <v>708310821225.402</v>
+      </c>
+      <c r="I16" t="n">
+        <v>101137604958.363</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16" t="n">
+        <v>0.170438032137583</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0.237677422870191</v>
       </c>
-      <c r="D17">
-        <v>4.2442096721596101E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.28011951959178699</v>
-      </c>
-      <c r="J17">
+      <c r="D17" t="n">
+        <v>0.0424420967215961</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.280119519591787</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" t="n">
         <v>0.151514242147231</v>
       </c>
-      <c r="K17">
-        <v>0.13480613863673399</v>
-      </c>
-      <c r="L17">
-        <v>9.1675775924061204E-3</v>
-      </c>
-      <c r="M17">
-        <v>4.60778223619542E-2</v>
-      </c>
-      <c r="N17">
-        <v>0.14397371622913999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K17" t="n">
+        <v>0.134806138636734</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.00916757759240612</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0460778223619542</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.14397371622914</v>
+      </c>
+      <c r="O17"/>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="F18">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" t="n">
         <v>0.22733814283733</v>
       </c>
-      <c r="G18">
-        <v>3.7761830792945802E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G18" t="n">
+        <v>0.0377618307929458</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="H19">
-        <v>0.22477012540632499</v>
-      </c>
-      <c r="I19">
-        <v>3.9423329415717703E-2</v>
-      </c>
-      <c r="O19">
-        <v>0.19759206450918501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19" t="n">
+        <v>0.224770125406325</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0394233294157177</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19" t="n">
+        <v>0.197592064509185</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
-        <v>1.8554725948395101</v>
-      </c>
-      <c r="D20">
-        <v>0.27716178023738602</v>
-      </c>
-      <c r="E20">
-        <v>2.1326343750768899</v>
-      </c>
-      <c r="J20">
-        <v>0.12996216485884601</v>
-      </c>
-      <c r="K20">
-        <v>0.11943769547173699</v>
-      </c>
-      <c r="L20">
-        <v>4.8555388654892402E-2</v>
-      </c>
-      <c r="M20">
-        <v>6.6112624954426796E-2</v>
-      </c>
-      <c r="N20">
+      <c r="C20" t="n">
+        <v>1.85547259483951</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.277161780237386</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.13263437507689</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" t="n">
+        <v>0.129962164858846</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.119437695471737</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0485553886548924</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0661126249544268</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.167993084126629</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O20"/>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="F21">
-        <v>1.8180294291757699</v>
-      </c>
-      <c r="G21">
-        <v>0.25471693504299198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="n">
+        <v>1.81802942917577</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.254716935042992</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="H22">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22" t="n">
         <v>1.71447853823513</v>
       </c>
-      <c r="I22">
-        <v>0.28239935058149401</v>
-      </c>
-      <c r="O22">
+      <c r="I22" t="n">
+        <v>0.282399350581494</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" t="n">
         <v>0.196074789813273</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23">
-        <v>0.30643343088888497</v>
-      </c>
-      <c r="D23">
-        <v>4.8460889823282602E-2</v>
-      </c>
-      <c r="E23">
-        <v>0.35489432071216698</v>
-      </c>
-      <c r="J23">
+      <c r="C23" t="n">
+        <v>0.306433430888885</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0484608898232826</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.354894320712167</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" t="n">
         <v>0.136550198171771</v>
       </c>
-      <c r="K23">
-        <v>0.12393394997492301</v>
-      </c>
-      <c r="L23">
-        <v>6.3330525610194501E-3</v>
-      </c>
-      <c r="M23">
-        <v>5.1394712573468601E-2</v>
-      </c>
-      <c r="N23">
-        <v>0.13026700253594301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K23" t="n">
+        <v>0.123933949974923</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.00633305256101945</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0513947125734686</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.130267002535943</v>
+      </c>
+      <c r="O23"/>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="F24">
-        <v>0.29044130366860399</v>
-      </c>
-      <c r="G24">
-        <v>4.3983454989526098E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" t="n">
+        <v>0.290441303668604</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0439834549895261</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="H25">
-        <v>0.28819373928192599</v>
-      </c>
-      <c r="I25">
-        <v>4.5850535959150299E-2</v>
-      </c>
-      <c r="O25">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25" t="n">
+        <v>0.288193739281926</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0458505359591503</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25" t="n">
         <v>0.18794491074524</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1037,408 +1227,408 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>0.23025481471672299</v>
-      </c>
-      <c r="C2">
-        <v>0.24721140603113301</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="n">
+        <v>0.230460409382571</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.247005811365285</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.238733110373928</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>0.419369746303349</v>
-      </c>
-      <c r="C3">
-        <v>0.45919602323280601</v>
-      </c>
-      <c r="D3">
-        <v>0.43928288476807797</v>
+      <c r="B3" t="n">
+        <v>0.419852630507224</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.458713139028931</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.439282884768078</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>0.34512306300134299</v>
-      </c>
-      <c r="C4">
-        <v>0.40123201505731299</v>
-      </c>
-      <c r="D4">
-        <v>0.37317753902932799</v>
+      <c r="B4" t="n">
+        <v>0.333740182416987</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.412614895641669</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.373177539029328</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0.122242449394295</v>
-      </c>
-      <c r="C5">
-        <v>0.131872360580753</v>
-      </c>
-      <c r="D5">
-        <v>0.12705740498752399</v>
+      <c r="B5" t="n">
+        <v>0.122667822896704</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.131446987078344</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.127057404987524</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0.16400596011507501</v>
-      </c>
-      <c r="C6">
-        <v>0.22505399414621199</v>
-      </c>
-      <c r="D6">
-        <v>0.19452997713064399</v>
+      <c r="B6" t="n">
+        <v>0.16670258062883</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.222357373632457</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.194529977130644</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>0.13148937587141399</v>
-      </c>
-      <c r="C7">
-        <v>0.20951715706781401</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="n">
+        <v>0.133708378403536</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.207298154535692</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.170503266469614</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>0.15156482388694201</v>
-      </c>
-      <c r="C8">
-        <v>0.210668069304251</v>
-      </c>
-      <c r="D8">
+      <c r="B8" t="n">
+        <v>0.151354130168503</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.21087876302269</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.181116446595596</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>0.128447921259706</v>
-      </c>
-      <c r="C9">
-        <v>0.372963174918574</v>
-      </c>
-      <c r="D9">
-        <v>0.25070554808913997</v>
+      <c r="B9" t="n">
+        <v>0.12757626306827</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.373834833110009</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.25070554808914</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
-        <v>4.5523793767878198E-2</v>
-      </c>
-      <c r="C10">
-        <v>0.224344692492354</v>
-      </c>
-      <c r="D10">
-        <v>0.13493424313011601</v>
+      <c r="B10" t="n">
+        <v>0.0386418174946367</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.231226668765595</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.134934243130116</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>0.142390178058625</v>
-      </c>
-      <c r="C11">
-        <v>0.18978275231625899</v>
-      </c>
-      <c r="D11">
+      <c r="B11" t="n">
+        <v>0.139400434668118</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.192772495706765</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.166086465187442</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.120140649968814</v>
-      </c>
-      <c r="C12">
-        <v>0.33985924438111798</v>
-      </c>
-      <c r="D12">
+      <c r="B12" t="n">
+        <v>0.106279781980412</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.35372011236952</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.229999947174966</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13">
-        <v>0.111696222047278</v>
-      </c>
-      <c r="C13">
-        <v>0.263911992562047</v>
-      </c>
-      <c r="D13">
-        <v>0.18780410730466299</v>
+      <c r="B13" t="n">
+        <v>0.100735193222982</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.274873021386343</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.187804107304663</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0.10471071272148801</v>
-      </c>
-      <c r="C14">
-        <v>0.17493774451284499</v>
-      </c>
-      <c r="D14">
-        <v>0.13982422861716601</v>
+      <c r="B14" t="n">
+        <v>0.098145684113066</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.181502773121267</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.139824228617166</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>-3.78866454455907E-2</v>
-      </c>
-      <c r="C15">
-        <v>0.37876270972075698</v>
-      </c>
-      <c r="D15">
-        <v>0.17043803213758299</v>
+      <c r="B15" t="n">
+        <v>-0.0768362474232773</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.417712311698443</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.170438032137583</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
-        <v>-8.9706722948630895E-3</v>
-      </c>
-      <c r="C16">
-        <v>0.34526953698128299</v>
-      </c>
-      <c r="D16">
+      <c r="B16" t="n">
+        <v>-0.00847989530578228</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.344778759992202</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.16814943234321</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
-        <v>0.13702363186691299</v>
-      </c>
-      <c r="C17">
-        <v>0.15092380059136701</v>
-      </c>
-      <c r="D17">
-        <v>0.14397371622913999</v>
+      <c r="B17" t="n">
+        <v>0.137684157372706</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.150263275085574</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.14397371622914</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
-        <v>0.15885719684968799</v>
-      </c>
-      <c r="C18">
-        <v>0.236326932168683</v>
-      </c>
-      <c r="D18">
-        <v>0.19759206450918501</v>
+      <c r="B18" t="n">
+        <v>0.162538500085615</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.232645628932755</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.197592064509185</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>0.101058348863311</v>
-      </c>
-      <c r="C19">
-        <v>0.201970135431151</v>
-      </c>
-      <c r="D19">
+      <c r="B19" t="n">
+        <v>0.0953924237805444</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.207636060513918</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.151514242147231</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
-        <v>0.15599901813625999</v>
-      </c>
-      <c r="C20">
-        <v>0.17998715011699801</v>
-      </c>
-      <c r="D20">
+      <c r="B20" t="n">
+        <v>0.1556249187638</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.180361249489458</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.167993084126629</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21">
-        <v>0.13867759353921399</v>
-      </c>
-      <c r="C21">
-        <v>0.25347198608733201</v>
-      </c>
-      <c r="D21">
+      <c r="B21" t="n">
+        <v>0.136887353671903</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.255262225954643</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.196074789813273</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22">
-        <v>6.4102302450089493E-2</v>
-      </c>
-      <c r="C22">
-        <v>0.195822027267603</v>
-      </c>
-      <c r="D22">
-        <v>0.12996216485884601</v>
+      <c r="B22" t="n">
+        <v>0.0675426717792153</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.192381657938477</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.129962164858846</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
-        <v>0.123502479000541</v>
-      </c>
-      <c r="C23">
-        <v>0.137031526071345</v>
-      </c>
-      <c r="D23">
-        <v>0.13026700253594301</v>
+      <c r="B23" t="n">
+        <v>0.122219954214899</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.138314050856987</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.130267002535943</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24">
-        <v>0.145776397949444</v>
-      </c>
-      <c r="C24">
-        <v>0.23011342354103501</v>
-      </c>
-      <c r="D24">
+      <c r="B24" t="n">
+        <v>0.137781427934006</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.238108393556474</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.18794491074524</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>8.9578691530813506E-2</v>
-      </c>
-      <c r="C25">
-        <v>0.183521704812729</v>
-      </c>
-      <c r="D25">
+      <c r="B25" t="n">
+        <v>0.0912911165114419</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1818092798321</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.136550198171771</v>
       </c>
       <c r="E25" t="s">
@@ -1447,6 +1637,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/full_results_centile_rank_IQ.xlsx
+++ b/results/full_results_centile_rank_IQ.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Outcome</t>
   </si>
@@ -75,19 +75,10 @@
     <t xml:space="preserve">occupation</t>
   </si>
   <si>
-    <t xml:space="preserve">income_ind</t>
-  </si>
-  <si>
     <t xml:space="preserve">income_hh</t>
   </si>
   <si>
     <t xml:space="preserve">wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_illness</t>
   </si>
   <si>
     <t xml:space="preserve">health_pc</t>
@@ -492,32 +483,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>3.65873197888275</v>
+        <v>0.628403326389794</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1782190027668</v>
+        <v>0.373611934001235</v>
       </c>
       <c r="E2" t="n">
-        <v>5.83695098164955</v>
+        <v>1.00201526039103</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.373177539029328</v>
+        <v>0.37286052295794</v>
       </c>
       <c r="K2" t="n">
-        <v>0.227038935410677</v>
+        <v>0.223948074727108</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0116941749632512</v>
+        <v>0.015101965705533</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0661053457387497</v>
+        <v>0.0658730914490298</v>
       </c>
       <c r="N2" t="n">
-        <v>0.238733110373928</v>
+        <v>0.239050040432641</v>
       </c>
       <c r="O2"/>
     </row>
@@ -532,10 +523,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>3.341136642212</v>
+        <v>0.577529883607578</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32521513691802</v>
+        <v>0.224399388411753</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -559,10 +550,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>3.27287831618067</v>
+        <v>0.562397483508732</v>
       </c>
       <c r="I4" t="n">
-        <v>1.17275929715817</v>
+        <v>0.201370438892179</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -570,7 +561,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.439282884768078</v>
+        <v>0.438733614406969</v>
       </c>
     </row>
     <row r="5">
@@ -581,32 +572,32 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>44783.0192873919</v>
+        <v>0.840547924335136</v>
       </c>
       <c r="D5" t="n">
-        <v>9205.16110819903</v>
+        <v>0.158869024064627</v>
       </c>
       <c r="E5" t="n">
-        <v>53988.180395591</v>
+        <v>0.999416948399763</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="n">
-        <v>0.170503266469614</v>
+        <v>0.158961706942236</v>
       </c>
       <c r="K5" t="n">
-        <v>0.11600648812835</v>
+        <v>0.110304474923855</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0110509168591737</v>
+        <v>0.0157488188608718</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0240267106610297</v>
+        <v>0.033227882477987</v>
       </c>
       <c r="N5" t="n">
-        <v>0.127057404987524</v>
+        <v>0.126053293784727</v>
       </c>
       <c r="O5"/>
     </row>
@@ -621,10 +612,10 @@
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>44082.4797908413</v>
+        <v>0.823079051914033</v>
       </c>
       <c r="G6" t="n">
-        <v>6262.97920813236</v>
+        <v>0.110240161723238</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -648,10 +639,10 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>43485.8608979116</v>
+        <v>0.8073394154272</v>
       </c>
       <c r="I7" t="n">
-        <v>6053.52653641096</v>
+        <v>0.110974072795666</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -659,7 +650,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>0.194529977130644</v>
+        <v>0.192189589420223</v>
       </c>
     </row>
     <row r="8">
@@ -670,32 +661,32 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>2121617852.45352</v>
+        <v>0.810272823295543</v>
       </c>
       <c r="D8" t="n">
-        <v>330933107.522388</v>
+        <v>0.192497530543022</v>
       </c>
       <c r="E8" t="n">
-        <v>2452550959.97591</v>
+        <v>1.00277035383857</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="n">
-        <v>0.134934243130116</v>
+        <v>0.19196571758045</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0966396990463057</v>
+        <v>0.135120050154024</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0844767475492908</v>
+        <v>0.0364509986071843</v>
       </c>
       <c r="M8" t="n">
-        <v>0.115771304959024</v>
+        <v>0.0420508917470762</v>
       </c>
       <c r="N8" t="n">
-        <v>0.181116446595596</v>
+        <v>0.171571048761208</v>
       </c>
       <c r="O8"/>
     </row>
@@ -710,10 +701,10 @@
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="n">
-        <v>2044866355.63626</v>
+        <v>0.804657416470195</v>
       </c>
       <c r="G9" t="n">
-        <v>237013786.6678</v>
+        <v>0.135494380503635</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -737,10 +728,10 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="n">
-        <v>1837682827.3386</v>
+        <v>0.7681054356991</v>
       </c>
       <c r="I10" t="n">
-        <v>193744370.541207</v>
+        <v>0.12661131002129</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -748,7 +739,7 @@
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10" t="n">
-        <v>0.25070554808914</v>
+        <v>0.234016609327527</v>
       </c>
     </row>
     <row r="11">
@@ -759,32 +750,32 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>3767962171.5206</v>
+        <v>0.951016714391941</v>
       </c>
       <c r="D11" t="n">
-        <v>871266129.691704</v>
+        <v>0.0489091155884586</v>
       </c>
       <c r="E11" t="n">
-        <v>4639228301.21231</v>
+        <v>0.9999258299804</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="n">
-        <v>0.187804107304663</v>
+        <v>0.0489127434475988</v>
       </c>
       <c r="K11" t="n">
-        <v>0.130900851410676</v>
+        <v>0.0511611013321465</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0351856137767653</v>
+        <v>0.00698739932413562</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0421958398703034</v>
+        <v>0.0272244242085868</v>
       </c>
       <c r="N11" t="n">
-        <v>0.166086465187442</v>
+        <v>0.0581485006562821</v>
       </c>
       <c r="O11"/>
     </row>
@@ -799,10 +790,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>3735440132.22957</v>
+        <v>0.930781190488023</v>
       </c>
       <c r="G12" t="n">
-        <v>607278934.517197</v>
+        <v>0.0511573067122579</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -826,10 +817,10 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="n">
-        <v>3572206037.00087</v>
+        <v>0.923794309419432</v>
       </c>
       <c r="I13" t="n">
-        <v>571435789.620597</v>
+        <v>0.0508821762197941</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -837,7 +828,7 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.229999947174966</v>
+        <v>0.0761371676561855</v>
       </c>
     </row>
     <row r="14">
@@ -848,32 +839,32 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>710264912737.077</v>
+        <v>0.864415353858616</v>
       </c>
       <c r="D14" t="n">
-        <v>143572231039.595</v>
+        <v>0.135543391803346</v>
       </c>
       <c r="E14" t="n">
-        <v>853837143776.672</v>
+        <v>0.999958745661963</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="n">
-        <v>0.16814943234321</v>
+        <v>0.135548983786944</v>
       </c>
       <c r="K14" t="n">
-        <v>0.129860024025457</v>
+        <v>0.123427136762512</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00996420459170911</v>
+        <v>0.00682660046391363</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00228859979437311</v>
+        <v>0.0514022299675533</v>
       </c>
       <c r="N14" t="n">
-        <v>0.139824228617166</v>
+        <v>0.130253737226426</v>
       </c>
       <c r="O14"/>
     </row>
@@ -888,10 +879,10 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>716818629213.993</v>
+        <v>0.819841563293064</v>
       </c>
       <c r="G15" t="n">
-        <v>110879312004.667</v>
+        <v>0.12342204485769</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -915,10 +906,10 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16" t="n">
-        <v>708310821225.402</v>
+        <v>0.813015244456034</v>
       </c>
       <c r="I16" t="n">
-        <v>101137604958.363</v>
+        <v>0.128896732582364</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -926,274 +917,7 @@
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>0.170438032137583</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.237677422870191</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0424420967215961</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.280119519591787</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17" t="n">
-        <v>0.151514242147231</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.134806138636734</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.00916757759240612</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.0460778223619542</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.14397371622914</v>
-      </c>
-      <c r="O17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18" t="n">
-        <v>0.22733814283733</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0377618307929458</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19" t="n">
-        <v>0.224770125406325</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0394233294157177</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19" t="n">
-        <v>0.197592064509185</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.85547259483951</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.277161780237386</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.13263437507689</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20" t="n">
-        <v>0.129962164858846</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.119437695471737</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.0485553886548924</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.0661126249544268</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.167993084126629</v>
-      </c>
-      <c r="O20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21" t="n">
-        <v>1.81802942917577</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.254716935042992</v>
-      </c>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22" t="n">
-        <v>1.71447853823513</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.282399350581494</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22" t="n">
-        <v>0.196074789813273</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.306433430888885</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0484608898232826</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.354894320712167</v>
-      </c>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23" t="n">
-        <v>0.136550198171771</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.123933949974923</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.00633305256101945</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.0513947125734686</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.130267002535943</v>
-      </c>
-      <c r="O23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24" t="n">
-        <v>0.290441303668604</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.0439834549895261</v>
-      </c>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25" t="n">
-        <v>0.288193739281926</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.0458505359591503</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25" t="n">
-        <v>0.18794491074524</v>
+        <v>0.186951213754497</v>
       </c>
     </row>
   </sheetData>
@@ -1212,16 +936,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1232,13 +956,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.230460409382571</v>
+        <v>0.230523734779673</v>
       </c>
       <c r="C2" t="n">
-        <v>0.247005811365285</v>
+        <v>0.247576346085609</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238733110373928</v>
+        <v>0.239050040432641</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1249,13 +973,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.419852630507224</v>
+        <v>0.418714672985158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.458713139028931</v>
+        <v>0.458752555828781</v>
       </c>
       <c r="D3" t="n">
-        <v>0.439282884768078</v>
+        <v>0.438733614406969</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1263,16 +987,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.333740182416987</v>
+        <v>0.333963558179328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412614895641669</v>
+        <v>0.411757487736551</v>
       </c>
       <c r="D4" t="n">
-        <v>0.373177539029328</v>
+        <v>0.37286052295794</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1283,13 +1007,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.122667822896704</v>
+        <v>0.121981482772674</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131446987078344</v>
+        <v>0.13012510479678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.127057404987524</v>
+        <v>0.126053293784727</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1300,13 +1024,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.16670258062883</v>
+        <v>0.166095457115621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.222357373632457</v>
+        <v>0.218283721724825</v>
       </c>
       <c r="D6" t="n">
-        <v>0.194529977130644</v>
+        <v>0.192189589420223</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1314,16 +1038,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>0.133708378403536</v>
+        <v>0.118471626269731</v>
       </c>
       <c r="C7" t="n">
-        <v>0.207298154535692</v>
+        <v>0.199451787614741</v>
       </c>
       <c r="D7" t="n">
-        <v>0.170503266469614</v>
+        <v>0.158961706942236</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1334,13 +1058,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151354130168503</v>
+        <v>0.144276392093244</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21087876302269</v>
+        <v>0.198865705429172</v>
       </c>
       <c r="D8" t="n">
-        <v>0.181116446595596</v>
+        <v>0.171571048761208</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1351,13 +1075,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12757626306827</v>
+        <v>0.112158907735536</v>
       </c>
       <c r="C9" t="n">
-        <v>0.373834833110009</v>
+        <v>0.355874310919517</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25070554808914</v>
+        <v>0.234016609327527</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1365,16 +1089,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0386418174946367</v>
+        <v>0.103463798754346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.231226668765595</v>
+        <v>0.280467636406555</v>
       </c>
       <c r="D10" t="n">
-        <v>0.134934243130116</v>
+        <v>0.19196571758045</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -1385,13 +1109,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.139400434668118</v>
+        <v>0.0362452599893411</v>
       </c>
       <c r="C11" t="n">
-        <v>0.192772495706765</v>
+        <v>0.0800517413232232</v>
       </c>
       <c r="D11" t="n">
-        <v>0.166086465187442</v>
+        <v>0.0581485006562821</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -1402,13 +1126,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.106279781980412</v>
+        <v>-0.271861314362838</v>
       </c>
       <c r="C12" t="n">
-        <v>0.35372011236952</v>
+        <v>0.424135649675209</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229999947174966</v>
+        <v>0.0761371676561855</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1416,16 +1140,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100735193222982</v>
+        <v>-0.172460124395025</v>
       </c>
       <c r="C13" t="n">
-        <v>0.274873021386343</v>
+        <v>0.270285611290222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.187804107304663</v>
+        <v>0.0489127434475988</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1436,13 +1160,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.098145684113066</v>
+        <v>0.122444858568425</v>
       </c>
       <c r="C14" t="n">
-        <v>0.181502773121267</v>
+        <v>0.138062615884427</v>
       </c>
       <c r="D14" t="n">
-        <v>0.139824228617166</v>
+        <v>0.130253737226426</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -1453,13 +1177,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0768362474232773</v>
+        <v>0.138207895904128</v>
       </c>
       <c r="C15" t="n">
-        <v>0.417712311698443</v>
+        <v>0.235694531604867</v>
       </c>
       <c r="D15" t="n">
-        <v>0.170438032137583</v>
+        <v>0.186951213754497</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -1467,172 +1191,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00847989530578228</v>
+        <v>0.0792548222287911</v>
       </c>
       <c r="C16" t="n">
-        <v>0.344778759992202</v>
+        <v>0.191843145345097</v>
       </c>
       <c r="D16" t="n">
-        <v>0.16814943234321</v>
+        <v>0.135548983786944</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.137684157372706</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.150263275085574</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.14397371622914</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.162538500085615</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.232645628932755</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.197592064509185</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0953924237805444</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.207636060513918</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.151514242147231</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1556249187638</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.180361249489458</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.167993084126629</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.136887353671903</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.255262225954643</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.196074789813273</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0675426717792153</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.192381657938477</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.129962164858846</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.122219954214899</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.138314050856987</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.130267002535943</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.137781427934006</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.238108393556474</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.18794491074524</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.0912911165114419</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1818092798321</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.136550198171771</v>
-      </c>
-      <c r="E25" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/results/full_results_centile_rank_IQ.xlsx
+++ b/results/full_results_centile_rank_IQ.xlsx
@@ -750,32 +750,32 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.951016714391941</v>
+        <v>0.824802763049781</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0489091155884586</v>
+        <v>0.17514907679814</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999258299804</v>
+        <v>0.99995183984792</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="n">
-        <v>0.0489127434475988</v>
+        <v>0.175157512410575</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0511611013321465</v>
+        <v>0.135956120356493</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00698739932413562</v>
+        <v>0.00902557411715639</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0272244242085868</v>
+        <v>-0.0017532814931569</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0581485006562821</v>
+        <v>0.144981694473649</v>
       </c>
       <c r="O11"/>
     </row>
@@ -790,10 +790,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>0.930781190488023</v>
+        <v>0.835581099548768</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0511573067122579</v>
+        <v>0.13594957268906</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -817,10 +817,10 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="n">
-        <v>0.923794309419432</v>
+        <v>0.826555960104634</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0508821762197941</v>
+        <v>0.124734966963472</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -828,7 +828,7 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.0761371676561855</v>
+        <v>0.173404230917418</v>
       </c>
     </row>
     <row r="14">
@@ -956,10 +956,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.230523734779673</v>
+        <v>0.229953638605316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.247576346085609</v>
+        <v>0.248146442259966</v>
       </c>
       <c r="D2" t="n">
         <v>0.239050040432641</v>
@@ -973,10 +973,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.418714672985158</v>
+        <v>0.417376142279861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.458752555828781</v>
+        <v>0.460091086534078</v>
       </c>
       <c r="D3" t="n">
         <v>0.438733614406969</v>
@@ -990,10 +990,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.333963558179328</v>
+        <v>0.335618312919161</v>
       </c>
       <c r="C4" t="n">
-        <v>0.411757487736551</v>
+        <v>0.410102732996719</v>
       </c>
       <c r="D4" t="n">
         <v>0.37286052295794</v>
@@ -1007,10 +1007,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121981482772674</v>
+        <v>0.121872677925553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.13012510479678</v>
+        <v>0.130233909643901</v>
       </c>
       <c r="D5" t="n">
         <v>0.126053293784727</v>
@@ -1024,10 +1024,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166095457115621</v>
+        <v>0.165398183085031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.218283721724825</v>
+        <v>0.218980995755415</v>
       </c>
       <c r="D6" t="n">
         <v>0.192189589420223</v>
@@ -1041,10 +1041,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118471626269731</v>
+        <v>0.115214064946118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199451787614741</v>
+        <v>0.202709348938354</v>
       </c>
       <c r="D7" t="n">
         <v>0.158961706942236</v>
@@ -1058,10 +1058,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.144276392093244</v>
+        <v>0.144030981197544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198865705429172</v>
+        <v>0.199111116324872</v>
       </c>
       <c r="D8" t="n">
         <v>0.171571048761208</v>
@@ -1075,10 +1075,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.112158907735536</v>
+        <v>0.111063264435846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.355874310919517</v>
+        <v>0.356969954219207</v>
       </c>
       <c r="D9" t="n">
         <v>0.234016609327527</v>
@@ -1092,10 +1092,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>0.103463798754346</v>
+        <v>0.111308421466658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.280467636406555</v>
+        <v>0.272623013694243</v>
       </c>
       <c r="D10" t="n">
         <v>0.19196571758045</v>
@@ -1109,13 +1109,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0362452599893411</v>
+        <v>0.10972657633719</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0800517413232232</v>
+        <v>0.180236812610109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0581485006562821</v>
+        <v>0.144981694473649</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -1126,13 +1126,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.271861314362838</v>
+        <v>-0.0275986032396937</v>
       </c>
       <c r="C12" t="n">
-        <v>0.424135649675209</v>
+        <v>0.37440706507453</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0761371676561855</v>
+        <v>0.173404230917418</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1143,13 +1143,13 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.172460124395025</v>
+        <v>0.0268504279258857</v>
       </c>
       <c r="C13" t="n">
-        <v>0.270285611290222</v>
+        <v>0.323464596895265</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0489127434475988</v>
+        <v>0.175157512410575</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1160,10 +1160,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122444858568425</v>
+        <v>0.121681841215004</v>
       </c>
       <c r="C14" t="n">
-        <v>0.138062615884427</v>
+        <v>0.138825633237849</v>
       </c>
       <c r="D14" t="n">
         <v>0.130253737226426</v>
@@ -1177,10 +1177,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.138207895904128</v>
+        <v>0.13344511253765</v>
       </c>
       <c r="C15" t="n">
-        <v>0.235694531604867</v>
+        <v>0.240457314971345</v>
       </c>
       <c r="D15" t="n">
         <v>0.186951213754497</v>
@@ -1194,10 +1194,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0792548222287911</v>
+        <v>0.0882391022619626</v>
       </c>
       <c r="C16" t="n">
-        <v>0.191843145345097</v>
+        <v>0.182858865311926</v>
       </c>
       <c r="D16" t="n">
         <v>0.135548983786944</v>

--- a/results/full_results_centile_rank_IQ.xlsx
+++ b/results/full_results_centile_rank_IQ.xlsx
@@ -483,32 +483,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.628403326389794</v>
+        <v>0.633801763604265</v>
       </c>
       <c r="D2" t="n">
-        <v>0.373611934001235</v>
+        <v>0.366430595843073</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00201526039103</v>
+        <v>1.00023235944734</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.37286052295794</v>
+        <v>0.366345472011661</v>
       </c>
       <c r="K2" t="n">
-        <v>0.223948074727108</v>
+        <v>0.240293461885352</v>
       </c>
       <c r="L2" t="n">
-        <v>0.015101965705533</v>
+        <v>0.0149498683539009</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0658730914490298</v>
+        <v>0.0694728577301053</v>
       </c>
       <c r="N2" t="n">
-        <v>0.239050040432641</v>
+        <v>0.255243330239253</v>
       </c>
       <c r="O2"/>
     </row>
@@ -523,10 +523,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.577529883607578</v>
+        <v>0.579266105296382</v>
       </c>
       <c r="G3" t="n">
-        <v>0.224399388411753</v>
+        <v>0.240349296341354</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -550,10 +550,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.562397483508732</v>
+        <v>0.564312763199333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.201370438892179</v>
+        <v>0.215433081709399</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -561,7 +561,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.438733614406969</v>
+        <v>0.435818329741767</v>
       </c>
     </row>
     <row r="5">
@@ -572,32 +572,32 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>0.840547924335136</v>
+        <v>0.742751878844297</v>
       </c>
       <c r="D5" t="n">
-        <v>0.158869024064627</v>
+        <v>0.257411349567696</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999416948399763</v>
+        <v>1.00016322841199</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="n">
-        <v>0.158961706942236</v>
+        <v>0.257369339579101</v>
       </c>
       <c r="K5" t="n">
-        <v>0.110304474923855</v>
+        <v>0.197306449584884</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0157488188608718</v>
+        <v>0.0186312081185341</v>
       </c>
       <c r="M5" t="n">
-        <v>0.033227882477987</v>
+        <v>0.0373391125658816</v>
       </c>
       <c r="N5" t="n">
-        <v>0.126053293784727</v>
+        <v>0.215937657703418</v>
       </c>
       <c r="O5"/>
     </row>
@@ -612,10 +612,10 @@
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0.823079051914033</v>
+        <v>0.724040920735415</v>
       </c>
       <c r="G6" t="n">
-        <v>0.110240161723238</v>
+        <v>0.197338655603325</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -639,10 +639,10 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.8073394154272</v>
+        <v>0.705406671474366</v>
       </c>
       <c r="I7" t="n">
-        <v>0.110974072795666</v>
+        <v>0.187629640774878</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -650,7 +650,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>0.192189589420223</v>
+        <v>0.294708452144982</v>
       </c>
     </row>
     <row r="8">
@@ -661,32 +661,32 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>0.810272823295543</v>
+        <v>0.826274115984803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.192497530543022</v>
+        <v>0.17383611324454</v>
       </c>
       <c r="E8" t="n">
-        <v>1.00277035383857</v>
+        <v>1.00011022922934</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="n">
-        <v>0.19196571758045</v>
+        <v>0.173816953535705</v>
       </c>
       <c r="K8" t="n">
-        <v>0.135120050154024</v>
+        <v>0.115496816756891</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0364509986071843</v>
+        <v>0.0474038866752486</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0420508917470762</v>
+        <v>0.0507438022581494</v>
       </c>
       <c r="N8" t="n">
-        <v>0.171571048761208</v>
+        <v>0.16290070343214</v>
       </c>
       <c r="O8"/>
     </row>
@@ -701,10 +701,10 @@
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="n">
-        <v>0.804657416470195</v>
+        <v>0.822933832245582</v>
       </c>
       <c r="G9" t="n">
-        <v>0.135494380503635</v>
+        <v>0.115509547881994</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -728,10 +728,10 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="n">
-        <v>0.7681054356991</v>
+        <v>0.775524720276437</v>
       </c>
       <c r="I10" t="n">
-        <v>0.12661131002129</v>
+        <v>0.0999747271002661</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -739,7 +739,7 @@
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10" t="n">
-        <v>0.234016609327527</v>
+        <v>0.224560755793854</v>
       </c>
     </row>
     <row r="11">
@@ -750,32 +750,32 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.824802763049781</v>
+        <v>0.795487272157285</v>
       </c>
       <c r="D11" t="n">
-        <v>0.17514907679814</v>
+        <v>0.204642490406254</v>
       </c>
       <c r="E11" t="n">
-        <v>0.99995183984792</v>
+        <v>1.00012976256354</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="n">
-        <v>0.175157512410575</v>
+        <v>0.204615938917479</v>
       </c>
       <c r="K11" t="n">
-        <v>0.135956120356493</v>
+        <v>0.155168239359263</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00902557411715639</v>
+        <v>0.0166673088979551</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0017532814931569</v>
+        <v>0.0014504706835197</v>
       </c>
       <c r="N11" t="n">
-        <v>0.144981694473649</v>
+        <v>0.171835548257219</v>
       </c>
       <c r="O11"/>
     </row>
@@ -790,10 +790,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>0.835581099548768</v>
+        <v>0.810706084947656</v>
       </c>
       <c r="G12" t="n">
-        <v>0.13594957268906</v>
+        <v>0.155188374387782</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -817,10 +817,10 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="n">
-        <v>0.826555960104634</v>
+        <v>0.794036613256971</v>
       </c>
       <c r="I13" t="n">
-        <v>0.124734966963472</v>
+        <v>0.142181425915197</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -828,7 +828,7 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.173404230917418</v>
+        <v>0.206066409600999</v>
       </c>
     </row>
     <row r="14">
@@ -839,32 +839,32 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>0.864415353858616</v>
+        <v>0.86250241446824</v>
       </c>
       <c r="D14" t="n">
-        <v>0.135543391803346</v>
+        <v>0.137584829876363</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999958745661963</v>
+        <v>1.0000872443446</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="n">
-        <v>0.135548983786944</v>
+        <v>0.137572827425199</v>
       </c>
       <c r="K14" t="n">
-        <v>0.123427136762512</v>
+        <v>0.126954630295254</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00682660046391363</v>
+        <v>0.00570580005419588</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0514022299675533</v>
+        <v>0.0503685045703191</v>
       </c>
       <c r="N14" t="n">
-        <v>0.130253737226426</v>
+        <v>0.13266043034945</v>
       </c>
       <c r="O14"/>
     </row>
@@ -879,10 +879,10 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>0.819841563293064</v>
+        <v>0.817835813383733</v>
       </c>
       <c r="G15" t="n">
-        <v>0.12342204485769</v>
+        <v>0.126965706368769</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -906,10 +906,10 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16" t="n">
-        <v>0.813015244456034</v>
+        <v>0.812129515530751</v>
       </c>
       <c r="I16" t="n">
-        <v>0.128896732582364</v>
+        <v>0.129004329828175</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -917,7 +917,7 @@
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>0.186951213754497</v>
+        <v>0.187941331995518</v>
       </c>
     </row>
   </sheetData>
@@ -956,13 +956,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.229953638605316</v>
+        <v>0.241665969485447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.248146442259966</v>
+        <v>0.268820690993058</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239050040432641</v>
+        <v>0.255243330239253</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -973,13 +973,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.417376142279861</v>
+        <v>0.405807367023954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.460091086534078</v>
+        <v>0.465829292459579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.438733614406969</v>
+        <v>0.435818329741767</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -990,13 +990,13 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.335618312919161</v>
+        <v>0.319308655054574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410102732996719</v>
+        <v>0.413382288968749</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37286052295794</v>
+        <v>0.366345472011661</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121872677925553</v>
+        <v>0.206437294105776</v>
       </c>
       <c r="C5" t="n">
-        <v>0.130233909643901</v>
+        <v>0.22543802130106</v>
       </c>
       <c r="D5" t="n">
-        <v>0.126053293784727</v>
+        <v>0.215937657703418</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1024,13 +1024,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.165398183085031</v>
+        <v>0.263678541854073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.218980995755415</v>
+        <v>0.325738362435892</v>
       </c>
       <c r="D6" t="n">
-        <v>0.192189589420223</v>
+        <v>0.294708452144982</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1041,13 +1041,13 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115214064946118</v>
+        <v>0.206304542464407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.202709348938354</v>
+        <v>0.308434136693795</v>
       </c>
       <c r="D7" t="n">
-        <v>0.158961706942236</v>
+        <v>0.257369339579101</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1058,13 +1058,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.144030981197544</v>
+        <v>0.126920046331301</v>
       </c>
       <c r="C8" t="n">
-        <v>0.199111116324872</v>
+        <v>0.198881360532979</v>
       </c>
       <c r="D8" t="n">
-        <v>0.171571048761208</v>
+        <v>0.16290070343214</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1075,13 +1075,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.111063264435846</v>
+        <v>0.0532857830007635</v>
       </c>
       <c r="C9" t="n">
-        <v>0.356969954219207</v>
+        <v>0.395835728586945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.234016609327527</v>
+        <v>0.224560755793854</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1092,13 +1092,13 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>0.111308421466658</v>
+        <v>0.075759548923437</v>
       </c>
       <c r="C10" t="n">
-        <v>0.272623013694243</v>
+        <v>0.271874358147973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.19196571758045</v>
+        <v>0.173816953535705</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -1109,13 +1109,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.10972657633719</v>
+        <v>0.115381536698415</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180236812610109</v>
+        <v>0.228289559816022</v>
       </c>
       <c r="D11" t="n">
-        <v>0.144981694473649</v>
+        <v>0.171835548257219</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -1126,13 +1126,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0275986032396937</v>
+        <v>-0.0547686535968448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.37440706507453</v>
+        <v>0.466901472798842</v>
       </c>
       <c r="D12" t="n">
-        <v>0.173404230917418</v>
+        <v>0.206066409600999</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1143,13 +1143,13 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0268504279258857</v>
+        <v>0.0502407731595606</v>
       </c>
       <c r="C13" t="n">
-        <v>0.323464596895265</v>
+        <v>0.358991104675397</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175157512410575</v>
+        <v>0.204615938917479</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1160,13 +1160,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.121681841215004</v>
+        <v>0.122821871211284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.138825633237849</v>
+        <v>0.142498989487616</v>
       </c>
       <c r="D14" t="n">
-        <v>0.130253737226426</v>
+        <v>0.13266043034945</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -1177,13 +1177,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.13344511253765</v>
+        <v>0.127716235425451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.240457314971345</v>
+        <v>0.248166428565586</v>
       </c>
       <c r="D15" t="n">
-        <v>0.186951213754497</v>
+        <v>0.187941331995518</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -1194,13 +1194,13 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0882391022619626</v>
+        <v>0.0735593175903902</v>
       </c>
       <c r="C16" t="n">
-        <v>0.182858865311926</v>
+        <v>0.201586337260008</v>
       </c>
       <c r="D16" t="n">
-        <v>0.135548983786944</v>
+        <v>0.137572827425199</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>

--- a/results/full_results_centile_rank_IQ.xlsx
+++ b/results/full_results_centile_rank_IQ.xlsx
@@ -483,32 +483,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.633801763604265</v>
+        <v>0.646323325211804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.366430595843073</v>
+        <v>0.353901374928943</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00023235944734</v>
+        <v>1.00022470014075</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.366345472011661</v>
+        <v>0.353821871104706</v>
       </c>
       <c r="K2" t="n">
-        <v>0.240293461885352</v>
+        <v>0.230665882890985</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0149498683539009</v>
+        <v>0.0141349591889687</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0694728577301053</v>
+        <v>0.0786918603705379</v>
       </c>
       <c r="N2" t="n">
-        <v>0.255243330239253</v>
+        <v>0.244800842079954</v>
       </c>
       <c r="O2"/>
     </row>
@@ -523,10 +523,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.579266105296382</v>
+        <v>0.581751918085453</v>
       </c>
       <c r="G3" t="n">
-        <v>0.240349296341354</v>
+        <v>0.230717713547336</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -550,10 +550,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.564312763199333</v>
+        <v>0.567613782769165</v>
       </c>
       <c r="I4" t="n">
-        <v>0.215433081709399</v>
+        <v>0.210720923040043</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -561,7 +561,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.435818329741767</v>
+        <v>0.432513731475244</v>
       </c>
     </row>
     <row r="5">
@@ -572,32 +572,32 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>0.742751878844297</v>
+        <v>0.87736090521989</v>
       </c>
       <c r="D5" t="n">
-        <v>0.257411349567696</v>
+        <v>0.122717006372813</v>
       </c>
       <c r="E5" t="n">
-        <v>1.00016322841199</v>
+        <v>1.0000779115927</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="n">
-        <v>0.257369339579101</v>
+        <v>0.122707446040255</v>
       </c>
       <c r="K5" t="n">
-        <v>0.197306449584884</v>
+        <v>0.0557511374272632</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0186312081185341</v>
+        <v>0.0167761595032997</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0373391125658816</v>
+        <v>0.0722841742237455</v>
       </c>
       <c r="N5" t="n">
-        <v>0.215937657703418</v>
+        <v>0.0725272969305629</v>
       </c>
       <c r="O5"/>
     </row>
@@ -612,10 +612,10 @@
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0.724040920735415</v>
+        <v>0.82184856578161</v>
       </c>
       <c r="G6" t="n">
-        <v>0.197338655603325</v>
+        <v>0.0557554810871752</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -639,10 +639,10 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.705406671474366</v>
+        <v>0.805071099221004</v>
       </c>
       <c r="I7" t="n">
-        <v>0.187629640774878</v>
+        <v>0.040610865929157</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -650,7 +650,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>0.294708452144982</v>
+        <v>0.194991620264001</v>
       </c>
     </row>
     <row r="8">
@@ -661,32 +661,32 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>0.826274115984803</v>
+        <v>0.835673869589237</v>
       </c>
       <c r="D8" t="n">
-        <v>0.17383611324454</v>
+        <v>0.164430530342826</v>
       </c>
       <c r="E8" t="n">
-        <v>1.00011022922934</v>
+        <v>1.00010439993206</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="n">
-        <v>0.173816953535705</v>
+        <v>0.164413365598627</v>
       </c>
       <c r="K8" t="n">
-        <v>0.115496816756891</v>
+        <v>0.106566271792464</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0474038866752486</v>
+        <v>0.0481217115529761</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0507438022581494</v>
+        <v>0.0557535126237842</v>
       </c>
       <c r="N8" t="n">
-        <v>0.16290070343214</v>
+        <v>0.15468798334544</v>
       </c>
       <c r="O8"/>
     </row>
@@ -701,10 +701,10 @@
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="n">
-        <v>0.822933832245582</v>
+        <v>0.828041271758916</v>
       </c>
       <c r="G9" t="n">
-        <v>0.115509547881994</v>
+        <v>0.106577397304</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -728,10 +728,10 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="n">
-        <v>0.775524720276437</v>
+        <v>0.779914536302523</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0999747271002661</v>
+        <v>0.0935344699065959</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -739,7 +739,7 @@
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10" t="n">
-        <v>0.224560755793854</v>
+        <v>0.220166878222411</v>
       </c>
     </row>
     <row r="11">
@@ -750,32 +750,32 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.795487272157285</v>
+        <v>0.768779677316853</v>
       </c>
       <c r="D11" t="n">
-        <v>0.204642490406254</v>
+        <v>0.231367222074937</v>
       </c>
       <c r="E11" t="n">
-        <v>1.00012976256354</v>
+        <v>1.00014689939179</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="n">
-        <v>0.204615938917479</v>
+        <v>0.231333239362774</v>
       </c>
       <c r="K11" t="n">
-        <v>0.155168239359263</v>
+        <v>0.186155599695415</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0166673088979551</v>
+        <v>0.0173592097369919</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0014504706835197</v>
+        <v>0.00721785739467148</v>
       </c>
       <c r="N11" t="n">
-        <v>0.171835548257219</v>
+        <v>0.203514809432407</v>
       </c>
       <c r="O11"/>
     </row>
@@ -790,10 +790,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>0.810706084947656</v>
+        <v>0.778922519417664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.155188374387782</v>
+        <v>0.186182945839789</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -817,10 +817,10 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="n">
-        <v>0.794036613256971</v>
+        <v>0.76156075962332</v>
       </c>
       <c r="I13" t="n">
-        <v>0.142181425915197</v>
+        <v>0.171101084947779</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -828,7 +828,7 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.206066409600999</v>
+        <v>0.238551096757445</v>
       </c>
     </row>
     <row r="14">
@@ -839,32 +839,32 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>0.86250241446824</v>
+        <v>0.86056319164205</v>
       </c>
       <c r="D14" t="n">
-        <v>0.137584829876363</v>
+        <v>0.139525364609732</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0000872443446</v>
+        <v>1.00008855625178</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="n">
-        <v>0.137572827425199</v>
+        <v>0.139513009860504</v>
       </c>
       <c r="K14" t="n">
-        <v>0.126954630295254</v>
+        <v>0.125378383607537</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00570580005419588</v>
+        <v>0.00832235281708016</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0503685045703191</v>
+        <v>0.0356365819701996</v>
       </c>
       <c r="N14" t="n">
-        <v>0.13266043034945</v>
+        <v>0.133700736424617</v>
       </c>
       <c r="O14"/>
     </row>
@@ -879,10 +879,10 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>0.817835813383733</v>
+        <v>0.833246543643177</v>
       </c>
       <c r="G15" t="n">
-        <v>0.126965706368769</v>
+        <v>0.125389486647244</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -906,10 +906,10 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16" t="n">
-        <v>0.812129515530751</v>
+        <v>0.824923453829725</v>
       </c>
       <c r="I16" t="n">
-        <v>0.129004329828175</v>
+        <v>0.134747448835763</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -917,7 +917,7 @@
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>0.187941331995518</v>
+        <v>0.175149591830703</v>
       </c>
     </row>
   </sheetData>
@@ -956,13 +956,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.241665969485447</v>
+        <v>0.232938856719777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.268820690993058</v>
+        <v>0.256662827440131</v>
       </c>
       <c r="D2" t="n">
-        <v>0.255243330239253</v>
+        <v>0.244800842079954</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -973,13 +973,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.405807367023954</v>
+        <v>0.405015812137435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.465829292459579</v>
+        <v>0.460011650813053</v>
       </c>
       <c r="D3" t="n">
-        <v>0.435818329741767</v>
+        <v>0.432513731475244</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -990,13 +990,13 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.319308655054574</v>
+        <v>0.305652492348059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.413382288968749</v>
+        <v>0.401991249861353</v>
       </c>
       <c r="D4" t="n">
-        <v>0.366345472011661</v>
+        <v>0.353821871104706</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.206437294105776</v>
+        <v>0.0690421811631757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.22543802130106</v>
+        <v>0.0760124126979502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.215937657703418</v>
+        <v>0.0725272969305629</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1024,13 +1024,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.263678541854073</v>
+        <v>0.156308979164295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.325738362435892</v>
+        <v>0.233674261363707</v>
       </c>
       <c r="D6" t="n">
-        <v>0.294708452144982</v>
+        <v>0.194991620264001</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1041,13 +1041,13 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>0.206304542464407</v>
+        <v>0.06715017383804</v>
       </c>
       <c r="C7" t="n">
-        <v>0.308434136693795</v>
+        <v>0.178264718242471</v>
       </c>
       <c r="D7" t="n">
-        <v>0.257369339579101</v>
+        <v>0.122707446040255</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1058,13 +1058,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.126920046331301</v>
+        <v>0.126334894574742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198881360532979</v>
+        <v>0.183041072116139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16290070343214</v>
+        <v>0.15468798334544</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1075,13 +1075,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0532857830007635</v>
+        <v>0.0772296102465609</v>
       </c>
       <c r="C9" t="n">
-        <v>0.395835728586945</v>
+        <v>0.363104146198261</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224560755793854</v>
+        <v>0.220166878222411</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1092,13 +1092,13 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>0.075759548923437</v>
+        <v>0.0513894750191</v>
       </c>
       <c r="C10" t="n">
-        <v>0.271874358147973</v>
+        <v>0.277437256178154</v>
       </c>
       <c r="D10" t="n">
-        <v>0.173816953535705</v>
+        <v>0.164413365598627</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -1109,13 +1109,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.115381536698415</v>
+        <v>0.136666777129534</v>
       </c>
       <c r="C11" t="n">
-        <v>0.228289559816022</v>
+        <v>0.27036284173528</v>
       </c>
       <c r="D11" t="n">
-        <v>0.171835548257219</v>
+        <v>0.203514809432407</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -1126,13 +1126,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0547686535968448</v>
+        <v>-0.0115602392328289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.466901472798842</v>
+        <v>0.488662432747719</v>
       </c>
       <c r="D12" t="n">
-        <v>0.206066409600999</v>
+        <v>0.238551096757445</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1143,13 +1143,13 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0502407731595606</v>
+        <v>0.0781908552653348</v>
       </c>
       <c r="C13" t="n">
-        <v>0.358991104675397</v>
+        <v>0.384475623460212</v>
       </c>
       <c r="D13" t="n">
-        <v>0.204615938917479</v>
+        <v>0.231333239362774</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1160,13 +1160,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122821871211284</v>
+        <v>0.123211014591888</v>
       </c>
       <c r="C14" t="n">
-        <v>0.142498989487616</v>
+        <v>0.144190458257347</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13266043034945</v>
+        <v>0.133700736424617</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -1177,13 +1177,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.127716235425451</v>
+        <v>0.110434530667312</v>
       </c>
       <c r="C15" t="n">
-        <v>0.248166428565586</v>
+        <v>0.239864652994094</v>
       </c>
       <c r="D15" t="n">
-        <v>0.187941331995518</v>
+        <v>0.175149591830703</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -1194,13 +1194,13 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0735593175903902</v>
+        <v>0.0744454696015892</v>
       </c>
       <c r="C16" t="n">
-        <v>0.201586337260008</v>
+        <v>0.204580550119418</v>
       </c>
       <c r="D16" t="n">
-        <v>0.137572827425199</v>
+        <v>0.139513009860504</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>

--- a/results/full_results_centile_rank_IQ.xlsx
+++ b/results/full_results_centile_rank_IQ.xlsx
@@ -75,7 +75,7 @@
     <t xml:space="preserve">occupation</t>
   </si>
   <si>
-    <t xml:space="preserve">income_hh</t>
+    <t xml:space="preserve">income</t>
   </si>
   <si>
     <t xml:space="preserve">wealth</t>
@@ -502,13 +502,13 @@
         <v>0.230665882890985</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0141349591889687</v>
+        <v>0.0141349591975043</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0786918603705379</v>
+        <v>0.0786918603790735</v>
       </c>
       <c r="N2" t="n">
-        <v>0.244800842079954</v>
+        <v>0.24480084208849</v>
       </c>
       <c r="O2"/>
     </row>
@@ -550,10 +550,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.567613782769165</v>
+        <v>0.567613782760628</v>
       </c>
       <c r="I4" t="n">
-        <v>0.210720923040043</v>
+        <v>0.210720923051635</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -561,7 +561,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.432513731475244</v>
+        <v>0.43251373148378</v>
       </c>
     </row>
     <row r="5">
@@ -591,13 +591,13 @@
         <v>0.0557511374272632</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0167761595032997</v>
+        <v>0.0167761595784711</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0722841742237455</v>
+        <v>0.0722841742989168</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0725272969305629</v>
+        <v>0.0725272970057343</v>
       </c>
       <c r="O5"/>
     </row>
@@ -639,10 +639,10 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.805071099221004</v>
+        <v>0.805071099145826</v>
       </c>
       <c r="I7" t="n">
-        <v>0.040610865929157</v>
+        <v>0.0406108660081982</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -650,7 +650,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>0.194991620264001</v>
+        <v>0.194991620339172</v>
       </c>
     </row>
     <row r="8">
@@ -680,13 +680,13 @@
         <v>0.106566271792464</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0481217115529761</v>
+        <v>0.0481217115712537</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0557535126237842</v>
+        <v>0.0557535126420617</v>
       </c>
       <c r="N8" t="n">
-        <v>0.15468798334544</v>
+        <v>0.154687983363718</v>
       </c>
       <c r="O8"/>
     </row>
@@ -728,10 +728,10 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="n">
-        <v>0.779914536302523</v>
+        <v>0.779914536284243</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0935344699065959</v>
+        <v>0.0935344699270351</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -739,7 +739,7 @@
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10" t="n">
-        <v>0.220166878222411</v>
+        <v>0.220166878240689</v>
       </c>
     </row>
     <row r="11">
@@ -769,13 +769,13 @@
         <v>0.186155599695415</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0173592097369919</v>
+        <v>0.017359209722346</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00721785739467148</v>
+        <v>0.00721785738002557</v>
       </c>
       <c r="N11" t="n">
-        <v>0.203514809432407</v>
+        <v>0.203514809417761</v>
       </c>
       <c r="O11"/>
     </row>
@@ -817,10 +817,10 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="n">
-        <v>0.76156075962332</v>
+        <v>0.761560759637968</v>
       </c>
       <c r="I13" t="n">
-        <v>0.171101084947779</v>
+        <v>0.171101084929932</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -828,7 +828,7 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.238551096757445</v>
+        <v>0.238551096742799</v>
       </c>
     </row>
     <row r="14">
@@ -858,13 +858,13 @@
         <v>0.125378383607537</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00832235281708016</v>
+        <v>0.00832235278946081</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0356365819701996</v>
+        <v>0.0356365819425803</v>
       </c>
       <c r="N14" t="n">
-        <v>0.133700736424617</v>
+        <v>0.133700736396998</v>
       </c>
       <c r="O14"/>
     </row>
@@ -906,10 +906,10 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16" t="n">
-        <v>0.824923453829725</v>
+        <v>0.824923453857347</v>
       </c>
       <c r="I16" t="n">
-        <v>0.134747448835763</v>
+        <v>0.134747448803727</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -917,7 +917,7 @@
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>0.175149591830703</v>
+        <v>0.175149591803084</v>
       </c>
     </row>
   </sheetData>
@@ -956,13 +956,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.232938856719777</v>
+        <v>0.19755120589886</v>
       </c>
       <c r="C2" t="n">
-        <v>0.256662827440131</v>
+        <v>0.292050478278119</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244800842079954</v>
+        <v>0.24480084208849</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -973,13 +973,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.405015812137435</v>
+        <v>0.390070795532674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.460011650813053</v>
+        <v>0.474956667434886</v>
       </c>
       <c r="D3" t="n">
-        <v>0.432513731475244</v>
+        <v>0.43251373148378</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -990,10 +990,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.305652492348059</v>
+        <v>0.304542630817571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.401991249861353</v>
+        <v>0.403101111391841</v>
       </c>
       <c r="D4" t="n">
         <v>0.353821871104706</v>
@@ -1007,13 +1007,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0690421811631757</v>
+        <v>0.0103024034250224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0760124126979502</v>
+        <v>0.134752190586446</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0725272969305629</v>
+        <v>0.0725272970057343</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1024,13 +1024,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.156308979164295</v>
+        <v>0.140807975663315</v>
       </c>
       <c r="C6" t="n">
-        <v>0.233674261363707</v>
+        <v>0.24917526501503</v>
       </c>
       <c r="D6" t="n">
-        <v>0.194991620264001</v>
+        <v>0.194991620339172</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1041,10 +1041,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06715017383804</v>
+        <v>0.0649336007862357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.178264718242471</v>
+        <v>0.180481291294275</v>
       </c>
       <c r="D7" t="n">
         <v>0.122707446040255</v>
@@ -1058,13 +1058,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.126334894574742</v>
+        <v>0.0356757257565675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.183041072116139</v>
+        <v>0.273700240970869</v>
       </c>
       <c r="D8" t="n">
-        <v>0.15468798334544</v>
+        <v>0.154687983363718</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1075,13 +1075,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0772296102465609</v>
+        <v>0.106118848496406</v>
       </c>
       <c r="C9" t="n">
-        <v>0.363104146198261</v>
+        <v>0.334214907984972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.220166878222411</v>
+        <v>0.220166878240689</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1092,10 +1092,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0513894750191</v>
+        <v>0.0295776116404515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.277437256178154</v>
+        <v>0.299249119556803</v>
       </c>
       <c r="D10" t="n">
         <v>0.164413365598627</v>
@@ -1109,13 +1109,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.136666777129534</v>
+        <v>0.0418285155012057</v>
       </c>
       <c r="C11" t="n">
-        <v>0.27036284173528</v>
+        <v>0.365201103334317</v>
       </c>
       <c r="D11" t="n">
-        <v>0.203514809432407</v>
+        <v>0.203514809417761</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -1126,13 +1126,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0115602392328289</v>
+        <v>0.0833850099985403</v>
       </c>
       <c r="C12" t="n">
-        <v>0.488662432747719</v>
+        <v>0.393717183487058</v>
       </c>
       <c r="D12" t="n">
-        <v>0.238551096757445</v>
+        <v>0.238551096742799</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1143,10 +1143,10 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0781908552653348</v>
+        <v>0.0593029241605496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.384475623460212</v>
+        <v>0.403363554564997</v>
       </c>
       <c r="D13" t="n">
         <v>0.231333239362774</v>
@@ -1160,13 +1160,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123211014591888</v>
+        <v>0.0649176817468624</v>
       </c>
       <c r="C14" t="n">
-        <v>0.144190458257347</v>
+        <v>0.202483791047134</v>
       </c>
       <c r="D14" t="n">
-        <v>0.133700736424617</v>
+        <v>0.133700736396998</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -1177,13 +1177,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.110434530667312</v>
+        <v>0.112818544682394</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239864652994094</v>
+        <v>0.237480638923773</v>
       </c>
       <c r="D15" t="n">
-        <v>0.175149591830703</v>
+        <v>0.175149591803084</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -1194,10 +1194,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0744454696015892</v>
+        <v>0.0742076255468194</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204580550119418</v>
+        <v>0.204818394174188</v>
       </c>
       <c r="D16" t="n">
         <v>0.139513009860504</v>
